--- a/biology/Médecine/Veine_testiculaire/Veine_testiculaire.xlsx
+++ b/biology/Médecine/Veine_testiculaire/Veine_testiculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les veines testiculaires transportent le sang désoxygéné depuis les testicules vers la veine cave inférieure ou une de ses tributaires. Ce sont l'équivalent masculin des veines ovariques et la contrepartie des artères testiculaires.
 </t>
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces veines sont au nombre de deux, chacune desservant un testicule :
 la veine testiculaire droite rejoint généralement la veine cave inférieure
@@ -549,7 +563,9 @@
           <t>Pathologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme la veine testiculaire gauche monte jusqu'à la gauche de la veine rénale, le testicule gauche a une plus grande tendance à développer une varicocèle à cause de la gravité influant le colonne de sang de cette veine. De plus la veine rénale gauche passe entre l'aorte abdominale et l'artère mésentérique supérieure, elle est donc souvent compressée par une artère mésentérique supérieure élargie.
 </t>
